--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68228008-67D6-4B7C-9D49-3B0973E84F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A6E0A-E082-4825-BA86-228609856EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ChapterDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="ChapterExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A6E0A-E082-4825-BA86-228609856EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546E210-CE06-4DF9-9ED7-100808E2711F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Images/Tribe/Logo_HUMAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Chapter/Chapter1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Chapter/Chapter2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작권 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +567,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,9 +611,11 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,9 +632,11 @@
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546E210-CE06-4DF9-9ED7-100808E2711F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -809,7 +808,7 @@
       <c r="I36" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F30">
+  <sortState ref="B2:F30">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E2479-E3D9-4D5C-9C47-B88CAD162855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -808,7 +803,7 @@
       <c r="I36" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B2:F30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F30">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E2479-E3D9-4D5C-9C47-B88CAD162855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD203C-4685-4AC2-9517-E61CA3B2D6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8955" yWindow="3015" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterExcelDatas" sheetId="1" r:id="rId1"/>
